--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101136</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101136</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21795.21913666721</v>
+        <v>1457922.755980461</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21795.21913666721</v>
+        <v>1457922.755980461</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419454043.489578</v>
+        <v>57505340.5960651</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12804.04902214085</v>
+        <v>1367537.18068717</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24385.10827145064</v>
+        <v>2532460.942994819</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35966.16752076041</v>
+        <v>3697384.70530247</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48153.03057260898</v>
+        <v>4823551.882891394</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60339.89362445752</v>
+        <v>5949719.060480319</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72526.75667630607</v>
+        <v>7075886.238069241</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84713.61972815459</v>
+        <v>8202053.41565816</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96900.48278000313</v>
+        <v>9328220.59324708</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108874.6835856015</v>
+        <v>10454575.33168973</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120877.3934821088</v>
+        <v>11586603.37922338</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132880.1033786161</v>
+        <v>12718631.42675703</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144882.8132751234</v>
+        <v>13850659.4742907</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156885.5231716305</v>
+        <v>14982687.52182438</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169477.2932308883</v>
+        <v>16057026.32300745</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182069.0632901451</v>
+        <v>17131365.12419061</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288.0000000000559</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
